--- a/Internet_Banking_System_CRS.xlsx
+++ b/Internet_Banking_System_CRS.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_ITI\Intake45\QA\workshop\week1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\Project-Internet-Banking-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE9EF58-FE56-44B0-90F9-9317AC0A191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BFBFB-FCF3-4F72-8670-43C143D4655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B8B1ACB-51F8-4291-BAE1-36A3B9C3E496}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B8B1ACB-51F8-4291-BAE1-36A3B9C3E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Crs" sheetId="1" r:id="rId1"/>
-    <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -80,10 +79,6 @@
     <t>The field required is the additional customer ID only</t>
   </si>
   <si>
-    <t>The maximum additional accounts to be added are two on top of the initial account created 
-through registration</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -163,16 +158,13 @@
     <t>017</t>
   </si>
   <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>NotApprove</t>
-  </si>
-  <si>
-    <t>Wating Response</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fields required in registration are FirstName,LastName,UserName,Customer ID,Mobile, National ID, Pass, Confirm pass </t>
+  </si>
+  <si>
+    <t>The maximum additional accounts to be added are two on top of the initial account created through registration</t>
+  </si>
+  <si>
+    <t>Waiting Response</t>
   </si>
 </sst>
 </file>
@@ -210,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +215,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,26 +272,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,92 +307,91 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -362,6 +406,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -372,9 +437,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,12 +457,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -409,12 +498,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -429,12 +529,44 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -750,249 +882,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCB336-3C48-4459-BC09-D7B18324DF0C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1003,14 +1143,57 @@
     <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Waiting Response">
+      <formula>NOT(ISERROR(SEARCH("Waiting Response",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Not Approved">
+      <formula>NOT(ISERROR(SEARCH("Not Approved",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Not Approved">
+      <formula>NOT(ISERROR(SEARCH("Not Approved",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{888A00A7-CDED-4591-A9D3-934695156CA6}">
+      <formula1>"Waiting Response,Approved,Not Approved"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C1C5DF58-A63D-47BC-975D-80ABDF42FBEB}">
-            <xm:f>NOT(ISERROR(SEARCH(status!$A$1,D2)))</xm:f>
-            <xm:f>status!$A$1</xm:f>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{151CDD08-20A8-496D-AD64-7A22DEFE862A}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D2)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{AF5AF29B-E30D-4319-8FE8-25722F938FF7}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D2)))</xm:f>
+            <xm:f>#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{C1C5DF58-A63D-47BC-975D-80ABDF42FBEB}">
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,D2)))</xm:f>
+            <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1019,72 +1202,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AF5AF29B-E30D-4319-8FE8-25722F938FF7}">
-            <xm:f>NOT(ISERROR(SEARCH(status!$A$2,D2)))</xm:f>
-            <xm:f>status!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{151CDD08-20A8-496D-AD64-7A22DEFE862A}">
-            <xm:f>NOT(ISERROR(SEARCH(status!$A$3,D2)))</xm:f>
-            <xm:f>status!$A$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>D2:D18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E6545A2-C929-4E82-8285-C84BD4C8D1C2}">
-          <x14:formula1>
-            <xm:f>status!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7761F010-BBE2-44EE-902F-CC5B74007E9D}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Internet_Banking_System_CRS.xlsx
+++ b/Internet_Banking_System_CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\Project-Internet-Banking-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BFBFB-FCF3-4F72-8670-43C143D4655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AB64B-526F-489F-B108-61C3B1E434B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B8B1ACB-51F8-4291-BAE1-36A3B9C3E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B8B1ACB-51F8-4291-BAE1-36A3B9C3E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Crs" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>The maximum additional accounts to be added are two on top of the initial account created through registration</t>
   </si>
   <si>
-    <t>Waiting Response</t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -311,9 +311,6 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -322,9 +319,6 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,9 +333,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,147 +347,27 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -529,44 +400,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,20 +738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCB336-3C48-4459-BC09-D7B18324DF0C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -912,226 +768,226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="D17" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1144,19 +1000,19 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D18">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Waiting Response">
-      <formula>NOT(ISERROR(SEARCH("Waiting Response",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Not Approved">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Not Approved">
       <formula>NOT(ISERROR(SEARCH("Not Approved",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Not Approved">
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Not Approved">
       <formula>NOT(ISERROR(SEARCH("Not Approved",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Waiting Response">
+      <formula>NOT(ISERROR(SEARCH("Waiting Response",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
